--- a/biology/Botanique/Gremmeniella/Gremmeniella.xlsx
+++ b/biology/Botanique/Gremmeniella/Gremmeniella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gremmeniella est un genre de champignons ascomycètes de la famille des Godroniaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (25 août 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (25 août 2023) :
 Gremmeniella abietina (Lagerb.) M. Morelet, 1969
 Gremmeniella balsamea Laflamme &amp; Smerlis, 2012
 Gremmeniella juniperina K. Holm &amp; L. Holm, 1977
@@ -546,10 +560,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Gremmeniella M. Morelet, 1969[1].
-Gremmeniella a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Gremmeniella M. Morelet, 1969.
+Gremmeniella a pour synonymes :
 Brunchorstia Erikss., 1891</t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>M. Morelet, « Un Discomycete inopercule nouveau », Bulletin de la Société des Sciences Naturelles et d'Archéologie de Toulon et du Var, vol. 183,‎ 1969, p. 9 (lire en ligne  [PDF])</t>
         </is>
